--- a/personalia/template_xlsx/tmpPerMon.xlsx
+++ b/personalia/template_xlsx/tmpPerMon.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="10245" windowHeight="8325" activeTab="4"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="10245" windowHeight="8325"/>
   </bookViews>
   <sheets>
     <sheet name="ahmad" sheetId="1" r:id="rId1"/>
@@ -187,17 +187,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -205,17 +202,20 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -518,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C14" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,65 +535,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4"/>
@@ -615,103 +615,103 @@
       <c r="Q4"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="7" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="8" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9" t="s">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="10" t="s">
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="P6" s="10" t="s">
+      <c r="P6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="11" t="s">
+      <c r="Q6" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="12" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="L7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="13" t="s">
+      <c r="M7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="13" t="s">
+      <c r="N7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="11"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -738,7 +738,7 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,65 +754,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4"/>
@@ -834,103 +834,103 @@
       <c r="Q4"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="7" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="8" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9" t="s">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="10" t="s">
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="P6" s="10" t="s">
+      <c r="P6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="11" t="s">
+      <c r="Q6" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="12" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="L7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="13" t="s">
+      <c r="M7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="13" t="s">
+      <c r="N7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="11"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -956,7 +956,7 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -972,65 +972,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4"/>
@@ -1052,103 +1052,103 @@
       <c r="Q4"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="7" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="8" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9" t="s">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="10" t="s">
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="P6" s="10" t="s">
+      <c r="P6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="11" t="s">
+      <c r="Q6" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="12" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="L7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="13" t="s">
+      <c r="M7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="13" t="s">
+      <c r="N7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="11"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -1174,7 +1174,7 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1190,65 +1190,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4"/>
@@ -1270,103 +1270,103 @@
       <c r="Q4"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="7" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="8" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9" t="s">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="10" t="s">
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="P6" s="10" t="s">
+      <c r="P6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="11" t="s">
+      <c r="Q6" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="12" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="L7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="13" t="s">
+      <c r="M7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="13" t="s">
+      <c r="N7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="11"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -1391,7 +1391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -1408,65 +1408,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4"/>
@@ -1488,103 +1488,103 @@
       <c r="Q4"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="7" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="8" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9" t="s">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="10" t="s">
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="P6" s="10" t="s">
+      <c r="P6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="11" t="s">
+      <c r="Q6" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="12" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="L7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="13" t="s">
+      <c r="M7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="13" t="s">
+      <c r="N7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="11"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/personalia/template_xlsx/tmpPerMon.xlsx
+++ b/personalia/template_xlsx/tmpPerMon.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="10245" windowHeight="8325"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="10245" windowHeight="8325" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ahmad" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="18">
   <si>
     <t>NO</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>AK</t>
+  </si>
+  <si>
+    <t>KARYAWAN BARU</t>
   </si>
 </sst>
 </file>
@@ -149,7 +152,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -172,11 +175,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -193,18 +233,21 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -216,6 +259,33 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -516,86 +586,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.85546875" style="2" customWidth="1"/>
-    <col min="3" max="12" width="10.7109375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="10.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="10.7109375" style="2" customWidth="1"/>
     <col min="15" max="15" width="10.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="10.7109375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" style="3" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" style="2" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4"/>
@@ -613,120 +692,132 @@
       <c r="O4"/>
       <c r="P4"/>
       <c r="Q4"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="R4"/>
+      <c r="S4"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="11" t="s">
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="7" t="s">
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="12" t="s">
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="P6" s="12" t="s">
+      <c r="R6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="13" t="s">
+      <c r="S6" s="14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="4" t="s">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="J7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="L7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="M7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="N7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="O7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="P7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
       <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="A3:Q3"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="I6:N6"/>
-    <mergeCell ref="C5:N5"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:S2"/>
+    <mergeCell ref="A3:S3"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q5:S5"/>
     <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C5:P5"/>
+    <mergeCell ref="J6:P6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -735,17 +826,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.85546875" style="2" customWidth="1"/>
-    <col min="3" max="12" width="10.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="10.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.7109375" style="2" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="10.7109375" style="2" customWidth="1"/>
     <col min="15" max="15" width="10.7109375" style="1" customWidth="1"/>
@@ -753,68 +847,72 @@
     <col min="17" max="17" width="10.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4"/>
@@ -833,119 +931,129 @@
       <c r="P4"/>
       <c r="Q4"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="11" t="s">
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="7" t="s">
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="12" t="s">
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="P6" s="12" t="s">
+      <c r="R6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="13" t="s">
+      <c r="S6" s="14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="4" t="s">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="J7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="L7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="M7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="N7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="O7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="P7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
       <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="A2:S2"/>
+    <mergeCell ref="A3:S3"/>
     <mergeCell ref="Q6:Q7"/>
     <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:N5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="I6:N6"/>
-    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="C5:P5"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="J6:P6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -953,17 +1061,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.85546875" style="2" customWidth="1"/>
-    <col min="3" max="12" width="10.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="10.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.7109375" style="2" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="10.7109375" style="2" customWidth="1"/>
     <col min="15" max="15" width="10.7109375" style="1" customWidth="1"/>
@@ -971,68 +1082,72 @@
     <col min="17" max="17" width="10.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4"/>
@@ -1051,119 +1166,129 @@
       <c r="P4"/>
       <c r="Q4"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="11" t="s">
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="7" t="s">
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="12" t="s">
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="P6" s="12" t="s">
+      <c r="R6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="13" t="s">
+      <c r="S6" s="14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="4" t="s">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="J7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="L7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="M7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="N7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="O7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="P7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
       <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="A2:S2"/>
+    <mergeCell ref="A3:S3"/>
     <mergeCell ref="Q6:Q7"/>
     <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:N5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="I6:N6"/>
-    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="C5:P5"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="J6:P6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1171,17 +1296,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.85546875" style="2" customWidth="1"/>
-    <col min="3" max="12" width="10.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="10.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.7109375" style="2" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="10.7109375" style="2" customWidth="1"/>
     <col min="15" max="15" width="10.7109375" style="1" customWidth="1"/>
@@ -1189,68 +1317,72 @@
     <col min="17" max="17" width="10.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4"/>
@@ -1269,119 +1401,129 @@
       <c r="P4"/>
       <c r="Q4"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="11" t="s">
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="7" t="s">
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="12" t="s">
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="P6" s="12" t="s">
+      <c r="R6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="13" t="s">
+      <c r="S6" s="14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="4" t="s">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="J7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="L7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="M7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="N7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="O7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="P7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
       <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="A3:S3"/>
+    <mergeCell ref="A2:S2"/>
     <mergeCell ref="Q6:Q7"/>
     <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:N5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="I6:N6"/>
-    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="C5:P5"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="J6:P6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1389,17 +1531,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.85546875" style="2" customWidth="1"/>
-    <col min="3" max="12" width="10.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="10.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.7109375" style="2" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="10.7109375" style="2" customWidth="1"/>
     <col min="15" max="15" width="10.7109375" style="1" customWidth="1"/>
@@ -1407,68 +1552,72 @@
     <col min="17" max="17" width="10.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4"/>
@@ -1487,119 +1636,129 @@
       <c r="P4"/>
       <c r="Q4"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="11" t="s">
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="7" t="s">
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="12" t="s">
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="P6" s="12" t="s">
+      <c r="R6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="13" t="s">
+      <c r="S6" s="14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="4" t="s">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="J7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="L7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="M7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="N7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="O7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="P7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
       <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="A2:S2"/>
+    <mergeCell ref="A3:S3"/>
     <mergeCell ref="Q6:Q7"/>
     <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:N5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="I6:N6"/>
-    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="C5:P5"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="J6:P6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
